--- a/TP2/graficos/ejercicio1/input/Ej1_Bodes/Inversor_G1_OK.xlsx
+++ b/TP2/graficos/ejercicio1/input/Ej1_Bodes/Inversor_G1_OK.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\InformesTC\TP2\Ej1_Bodes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B78BD0A-9AC0-4F00-AF15-79BB25D83583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{826EC9EB-3C6B-49AF-A4B9-77B5F67C16A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -22,71 +33,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Gain</t>
+    <t>Gain</t>
   </si>
   <si>
-    <t xml:space="preserve">freq</t>
+    <t>freq</t>
   </si>
   <si>
-    <t xml:space="preserve">amp maxima pico</t>
+    <t>offset</t>
   </si>
   <si>
-    <t xml:space="preserve">offset</t>
+    <t>ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">amp usada</t>
+    <t>phase</t>
   </si>
   <si>
-    <t xml:space="preserve">ratio</t>
+    <t>amp usada vpp</t>
   </si>
   <si>
-    <t xml:space="preserve">phase</t>
+    <t>amp maxima pico</t>
   </si>
   <si>
-    <t xml:space="preserve">vd</t>
+    <t>vd</t>
   </si>
   <si>
-    <t xml:space="preserve">Zinp</t>
+    <t>Zinp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +90,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -106,85 +98,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79FE924-DD31-4765-9DD8-AA3BE36BF5C4}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -201,7 +456,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -210,21 +465,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
@@ -237,753 +492,833 @@
       <c r="O2" s="2"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>40000</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C3*A3)</f>
-        <v>1.98943678864869</v>
+      <c r="D3" s="1">
+        <f>500000/(2*PI()*C3*A3)</f>
+        <v>1.9894367886486917</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="n">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="1">
         <v>173</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="4">
         <v>0.04</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <f aca="false">(H3*1200)/(H3-L3)</f>
+      <c r="M3" s="1">
+        <f>(H3*1200)/(H3-L3)</f>
         <v>1250</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>50000</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C4*A4)</f>
-        <v>1.59154943091895</v>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D22" si="0">500000/(2*PI()*C4*A4)</f>
+        <v>1.5915494309189535</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="n">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="1">
         <v>171</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="4" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <f aca="false">(H4*1200)/(H4-L4)</f>
-        <v>1261.82965299685</v>
+      <c r="L4" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M22" si="1">(H4*1200)/(H4-L4)</f>
+        <v>1261.8296529968454</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>60000</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C5*A5)</f>
-        <v>1.32629119243246</v>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3262911924324612</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>0.8</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>0.8</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="1">
         <v>169</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="4" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <f aca="false">(H5*1200)/(H5-L5)</f>
-        <v>1274.90039840637</v>
+      <c r="L5" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>1274.9003984063745</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>70000</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C6*A6)</f>
-        <v>1.13682102208497</v>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1368210220849668</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>0.7</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>0.7</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>-0.1</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="1">
         <v>166</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="4" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <f aca="false">(H6*1200)/(H6-L6)</f>
-        <v>1286.37059724349</v>
+      <c r="L6" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>1286.3705972434918</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>80000</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C7*A7)</f>
-        <v>0.994718394324346</v>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99471839432434583</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>0.65</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>0.65</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>-0.1</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="1">
         <v>165</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="4" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <f aca="false">(H7*1200)/(H7-L7)</f>
-        <v>1302.17028380634</v>
+      <c r="L7" s="4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>1302.1702838063441</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>90000</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C8*A8)</f>
-        <v>0.884194128288307</v>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88419412828830735</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>0.5</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>0.5</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>-0.2</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="1">
         <v>164</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="4" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <f aca="false">(H8*1200)/(H8-L8)</f>
-        <v>1318.68131868132</v>
+      <c r="L8" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>1318.6813186813185</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>100000</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C9*A9)</f>
-        <v>0.795774715459477</v>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79577471545947676</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>0.5</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>0.5</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="1">
         <v>162</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="4" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <f aca="false">(H9*1200)/(H9-L9)</f>
-        <v>1324.50331125828</v>
+      <c r="L9" s="4">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>1324.503311258278</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>200000</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C10*A10)</f>
-        <v>0.397887357729738</v>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39788735772973838</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>0.25</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="1">
         <v>0.2</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>-1</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="1">
         <v>145</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="4">
         <v>0.04</v>
       </c>
-      <c r="M10" s="1" t="n">
-        <f aca="false">(H10*1200)/(H10-L10)</f>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>300000</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C11*A11)</f>
-        <v>0.265258238486492</v>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26525823848649221</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>0.2</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>0.1</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>-2.1</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="1">
         <v>126</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="4" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <f aca="false">(H11*1200)/(H11-L11)</f>
-        <v>1600</v>
+      <c r="L11" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>1599.9999999999998</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>350000</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C12*A12)</f>
-        <v>0.227364204416993</v>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22736420441699337</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>0.15</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1">
         <v>0.1</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>-3.4</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="1">
         <v>115</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="4" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <f aca="false">(H12*1200)/(H12-L12)</f>
-        <v>1666.66666666667</v>
+      <c r="L12" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>1666.6666666666665</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>360000</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C13*A13)</f>
-        <v>0.221048532072077</v>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22104853207207684</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>0.15</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>0.1</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>-3.6</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="1">
         <v>111</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="4" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <f aca="false">(H13*1200)/(H13-L13)</f>
-        <v>1666.66666666667</v>
+      <c r="L13" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>1666.6666666666665</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>370000</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C14*A14)</f>
-        <v>0.21507424742148</v>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21507424742148018</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>0.15</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="1">
         <v>0.1</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>-3.7</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="1">
         <v>108</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="4">
         <v>0.03</v>
       </c>
-      <c r="M14" s="1" t="n">
-        <f aca="false">(H14*1200)/(H14-L14)</f>
-        <v>1714.28571428571</v>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>1714.2857142857142</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>380000</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C15*A15)</f>
-        <v>0.209414398805125</v>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20941439880512544</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>0.15</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>0.1</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>-3.8</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="1">
         <v>108</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="4">
         <v>0.03</v>
       </c>
-      <c r="M15" s="1" t="n">
-        <f aca="false">(H15*1200)/(H15-L15)</f>
-        <v>1714.28571428571</v>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>1714.2857142857142</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>390000</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C16*A16)</f>
-        <v>0.204044798835763</v>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20404479883576326</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>0.15</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="1">
         <v>0.1</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>-3.9</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="1">
         <v>106</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="4">
         <v>0.03</v>
       </c>
-      <c r="M16" s="1" t="n">
-        <f aca="false">(H16*1200)/(H16-L16)</f>
-        <v>1714.28571428571</v>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>1714.2857142857142</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>400000</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C17*A17)</f>
-        <v>0.198943678864869</v>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19894367886486919</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H17" s="1" t="n">
+      <c r="G17" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.1</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>-4.2</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="1">
         <v>103</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="4" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <f aca="false">(H17*1200)/(H17-L17)</f>
-        <v>1739.13043478261</v>
+      <c r="L17" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>1739.1304347826085</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>410000</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C18*A18)</f>
-        <v>0.194091394014507</v>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19409139401450651</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H18" s="1" t="n">
+      <c r="G18" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.1</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="J18" s="1" t="n">
+      <c r="I18" s="1">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="J18" s="1">
         <v>100</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <f aca="false">(H18*1200)/(H18-L18)</f>
-        <v>1764.70588235294</v>
+      <c r="L18" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>1764.705882352941</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>420000</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C19*A19)</f>
-        <v>0.189470170347494</v>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18947017034749444</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="H19" s="1" t="n">
+      <c r="G19" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.1</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="J19" s="1" t="n">
+      <c r="I19" s="1">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="J19" s="1">
         <v>98</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <f aca="false">(H19*1200)/(H19-L19)</f>
-        <v>1764.70588235294</v>
+      <c r="L19" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>1764.705882352941</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>430000</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C20*A20)</f>
-        <v>0.185063887316157</v>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18506388731615736</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="H20" s="1" t="n">
+      <c r="G20" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.1</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>-4.7</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="J20" s="1">
         <v>97</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <f aca="false">(H20*1200)/(H20-L20)</f>
-        <v>1764.70588235294</v>
+      <c r="L20" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>1764.705882352941</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>440000</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C21*A21)</f>
-        <v>0.180857889877154</v>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18085788987715379</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>0.13</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="1">
         <v>0.1</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="1">
         <v>-5</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="J21" s="1">
         <v>95</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <f aca="false">(H21*1200)/(H21-L21)</f>
-        <v>1764.70588235294</v>
+      <c r="L21" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>1764.705882352941</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>450000</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false">500000/(2*PI()*C22*A22)</f>
-        <v>0.176838825657661</v>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17683882565766149</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>0.125</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="1">
         <v>0.1</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="1">
         <v>-5.2</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="J22" s="1">
         <v>92</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="4" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <f aca="false">(H22*1200)/(H22-L22)</f>
-        <v>1764.70588235294</v>
+      <c r="L22" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>1764.705882352941</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>